--- a/data/towatch.xlsx
+++ b/data/towatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littlewho\Documents\UiPath\PriceTracking\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpaproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E926548-FB37-4BE3-98BC-BD863A0A0286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411DDA17-55E2-4588-BA7C-8BD1D5F76F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3037" yWindow="3037" windowWidth="18851" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Product Codes</t>
   </si>
   <si>
     <t>NH.Q8QEX.006</t>
-  </si>
-  <si>
-    <t>G713IC-HX008</t>
   </si>
   <si>
     <t>FX506HEB-HN148</t>
@@ -360,10 +357,10 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -372,12 +369,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -385,11 +382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/towatch.xlsx
+++ b/data/towatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rpaproject\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littlewho\Documents\UiPath\PriceTracking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411DDA17-55E2-4588-BA7C-8BD1D5F76F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E926548-FB37-4BE3-98BC-BD863A0A0286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3037" yWindow="3037" windowWidth="18851" windowHeight="9844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Product Codes</t>
   </si>
   <si>
     <t>NH.Q8QEX.006</t>
+  </si>
+  <si>
+    <t>G713IC-HX008</t>
   </si>
   <si>
     <t>FX506HEB-HN148</t>
@@ -357,10 +360,10 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -369,12 +372,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -382,7 +385,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
